--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2581135.201774105</v>
+        <v>-2582739.619700437</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>227.5527559193029</v>
+        <v>69.96562488232976</v>
       </c>
       <c r="C11" t="n">
         <v>237.4845760736198</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232952</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
         <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274267</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.6552833021289</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014327</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078952</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247957</v>
+        <v>38.74486795247958</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092797</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725098</v>
+        <v>19.65674986725099</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>108.6954285055752</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599611</v>
+        <v>17.28089669599612</v>
       </c>
       <c r="G12" t="n">
-        <v>8.06243522757725</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307217</v>
+        <v>16.16737725307219</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1478331994369</v>
+        <v>66.35951750204913</v>
       </c>
       <c r="U12" t="n">
-        <v>176.8935218260014</v>
+        <v>98.05485807843932</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635318</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>77.9846695060897</v>
+        <v>77.98466950608972</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991659</v>
+        <v>77.8943800799166</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454952</v>
+        <v>52.04366448454954</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124006</v>
+        <v>39.45850540124007</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082458</v>
+        <v>20.8271573208246</v>
       </c>
       <c r="E13" t="n">
-        <v>18.6456469491814</v>
+        <v>18.64564694918141</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554347</v>
+        <v>17.63273232554349</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219381</v>
+        <v>38.95117859219382</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403469</v>
+        <v>23.3120168340347</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015219</v>
+        <v>74.4183107301522</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569123</v>
+        <v>94.81001934569125</v>
       </c>
       <c r="U13" t="n">
         <v>158.4624508371644</v>
@@ -1591,10 +1591,10 @@
         <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164938</v>
+        <v>97.92133969164939</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470702</v>
+        <v>90.79633765470703</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>254.945525966093</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.48457607362</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232953</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748741</v>
+        <v>254.1420543748742</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H14" t="n">
-        <v>64.97560204152634</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212897</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727472</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810813</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>73.46972187490182</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>38.74486795247974</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092804</v>
+        <v>44.92018329092814</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725105</v>
+        <v>19.65674986725115</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801324</v>
+        <v>29.85676475801334</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577321</v>
+        <v>8.062435227577421</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307224</v>
+        <v>16.16737725307234</v>
       </c>
       <c r="T15" t="n">
-        <v>145.1981812496105</v>
+        <v>66.35951750204929</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843938</v>
+        <v>98.05485807843948</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635319</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608977</v>
+        <v>77.98466950608987</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991666</v>
+        <v>156.733043827477</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454959</v>
+        <v>52.04366448454969</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124013</v>
+        <v>39.45850540124023</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082465</v>
+        <v>20.82715732082475</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918147</v>
+        <v>18.64564694918157</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554354</v>
+        <v>17.63273232554364</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219388</v>
+        <v>38.95117859219398</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403476</v>
+        <v>23.31201683403486</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015226</v>
+        <v>74.41831073015236</v>
       </c>
       <c r="T16" t="n">
-        <v>94.8100193456913</v>
+        <v>94.8100193456914</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164945</v>
+        <v>97.92133969164955</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470709</v>
+        <v>90.79633765470719</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D17" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761421</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H17" t="n">
-        <v>67.9735396677405</v>
+        <v>67.97353966774057</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209023</v>
+        <v>8.193986148209108</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306125</v>
+        <v>84.82378941306104</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>116.1421967351946</v>
+        <v>186.0102819837294</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.766514103845651</v>
+        <v>8.766514103845736</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.7920863791745</v>
       </c>
       <c r="F19" t="n">
-        <v>139.7920863791748</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747818</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266754133</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951705</v>
+        <v>43.59452927951713</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D20" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761421</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774048</v>
+        <v>67.97353966774057</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209023</v>
+        <v>8.19398614820912</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306095</v>
+        <v>84.82378941306104</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="21">
@@ -2169,13 +2169,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>103.1159523176415</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>8.766514103845651</v>
+        <v>8.766514103845736</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>149.2531802272929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.7920863791745</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747818</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266754133</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951705</v>
+        <v>43.59452927951713</v>
       </c>
       <c r="X22" t="n">
-        <v>139.7920863791748</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D23" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761421</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774048</v>
+        <v>67.97353966774058</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209023</v>
+        <v>8.193986148209108</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306095</v>
+        <v>84.82378941306104</v>
       </c>
       <c r="W23" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.850750924965</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.6102702960632</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845736</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>71.59033669073274</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>139.7920863791749</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747818</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266754133</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951705</v>
+        <v>43.59452927951713</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.7920863791745</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651284</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983045</v>
+        <v>30.30344563983056</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784482</v>
+        <v>95.74259691784493</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455968</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018112</v>
+        <v>51.39303029018123</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862952</v>
+        <v>57.56834562862963</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495253</v>
+        <v>32.30491220495264</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0021208259475</v>
+        <v>42.50492709571483</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369765</v>
+        <v>29.92905903369777</v>
       </c>
       <c r="G27" t="n">
-        <v>20.7105975652788</v>
+        <v>20.71059756527891</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T27" t="n">
-        <v>79.00767983975066</v>
+        <v>79.00767983975078</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161409</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V27" t="n">
-        <v>117.660433789739</v>
+        <v>185.1576275199708</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012334</v>
+        <v>136.5548298012335</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379125</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>90.54254241761825</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225107</v>
+        <v>64.69182682225119</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894161</v>
+        <v>52.10666773894172</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852613</v>
+        <v>33.47531965852625</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688295</v>
+        <v>31.29380928688306</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324502</v>
+        <v>30.28089466324514</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989536</v>
+        <v>51.59934092989547</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173624</v>
+        <v>35.96017917173635</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338317</v>
+        <v>2.674752405338431</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969363</v>
+        <v>5.881918465969477</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785374</v>
+        <v>87.06647306785385</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748659</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037943</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125755</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735298</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983038</v>
+        <v>30.30344563983049</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784475</v>
+        <v>95.74259691784486</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104486</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577267</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018104</v>
+        <v>51.39303029018116</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862944</v>
+        <v>57.56834562862956</v>
       </c>
       <c r="D30" t="n">
-        <v>32.30491220495246</v>
+        <v>32.30491220495257</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571465</v>
+        <v>42.50492709571476</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369758</v>
+        <v>97.4262527639299</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527873</v>
+        <v>20.71059756527884</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077365</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T30" t="n">
-        <v>146.5048735699842</v>
+        <v>79.00767983975071</v>
       </c>
       <c r="U30" t="n">
-        <v>110.7030204161408</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
-        <v>136.5548298012333</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379118</v>
+        <v>90.63283184379129</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.691826822251</v>
+        <v>64.69182682225112</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894154</v>
+        <v>52.10666773894165</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852606</v>
+        <v>33.47531965852617</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688288</v>
+        <v>31.29380928688299</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324495</v>
+        <v>30.28089466324506</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989528</v>
+        <v>51.5993409298954</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173616</v>
+        <v>35.96017917173628</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338246</v>
+        <v>2.67475240533836</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969292</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785366</v>
+        <v>87.06647306785378</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833927</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748658</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037943</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125755</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735298</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.3034456398304</v>
+        <v>30.30344563983049</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784478</v>
+        <v>95.74259691784486</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104486</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577267</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118.8902240204145</v>
+        <v>51.39303029018116</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>57.56834562862956</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>32.30491220495257</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571468</v>
+        <v>42.50492709571476</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369761</v>
+        <v>29.9290590336977</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527876</v>
+        <v>20.71059756527884</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077368</v>
+        <v>28.81553959077376</v>
       </c>
       <c r="T33" t="n">
-        <v>79.00767983975062</v>
+        <v>146.5048735699828</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161408</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V33" t="n">
-        <v>117.660433789739</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012333</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379121</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761809</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225103</v>
+        <v>64.69182682225112</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894157</v>
+        <v>52.10666773894165</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852609</v>
+        <v>33.47531965852617</v>
       </c>
       <c r="E34" t="n">
-        <v>31.2938092868829</v>
+        <v>31.29380928688299</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324498</v>
+        <v>30.28089466324506</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989531</v>
+        <v>51.5993409298954</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173619</v>
+        <v>35.96017917173628</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338275</v>
+        <v>2.67475240533836</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969321</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785369</v>
+        <v>87.06647306785378</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833927</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748658</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D35" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293303</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177849</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W35" t="n">
         <v>129.2834806650631</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>126.6354362533423</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V36" t="n">
-        <v>12.84309909707531</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W36" t="n">
-        <v>182.0953269598177</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.48612903758664</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990729042</v>
+        <v>65.12697602831531</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220217</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687194</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683329</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199117</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G38" t="n">
-        <v>192.555278180866</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246434</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293288</v>
+        <v>31.16496715293303</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177848</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650629</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261189</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>24.82027949818287</v>
       </c>
       <c r="U39" t="n">
-        <v>5.88568572347698</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>84.69506848852802</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>62.48612903758662</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.6408469907289</v>
+        <v>2.640846990729042</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220203</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V40" t="n">
-        <v>32.1801552714779</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W40" t="n">
-        <v>66.5655102842409</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687052</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.48612903758735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683329</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199117</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G41" t="n">
-        <v>192.555278180866</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246434</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293288</v>
+        <v>31.16496715293302</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177848</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650629</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261189</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.36396613590568</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
-        <v>94.32947416179046</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477122</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707517</v>
+        <v>12.84309909707531</v>
       </c>
       <c r="W42" t="n">
-        <v>31.7374951085695</v>
+        <v>31.73749510856965</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.48612903758664</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.6408469907289</v>
+        <v>2.640846990729042</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220203</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V43" t="n">
-        <v>32.1801552714779</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W43" t="n">
-        <v>66.5655102842409</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X43" t="n">
-        <v>68.23829637427443</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683329</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199117</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G44" t="n">
-        <v>192.555278180866</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246434</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293288</v>
+        <v>31.16496715293302</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177848</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650629</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261189</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.734595766614641</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>40.3396300341606</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>5.88568572347698</v>
+        <v>5.885685723477122</v>
       </c>
       <c r="V45" t="n">
-        <v>12.84309909707517</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.6408469907289</v>
+        <v>65.12697602831568</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220203</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V46" t="n">
-        <v>32.1801552714779</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W46" t="n">
-        <v>66.5655102842409</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687052</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.48612903758737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>970.1609748777151</v>
+        <v>1094.627000603448</v>
       </c>
       <c r="C11" t="n">
-        <v>730.2775647023416</v>
+        <v>854.7435904280748</v>
       </c>
       <c r="D11" t="n">
-        <v>501.0909728606295</v>
+        <v>854.7435904280748</v>
       </c>
       <c r="E11" t="n">
-        <v>501.0909728606295</v>
+        <v>598.0344445948687</v>
       </c>
       <c r="F11" t="n">
-        <v>501.0909728606295</v>
+        <v>316.1276465702992</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739342</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006852</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838403</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965331</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893056</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O11" t="n">
-        <v>1179.900872569997</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q11" t="n">
         <v>1426.359574180211</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683111</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T11" t="n">
-        <v>1324.592182379936</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U11" t="n">
-        <v>1200.012243483072</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="V11" t="n">
-        <v>1200.012243483072</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="W11" t="n">
-        <v>1200.012243483072</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="X11" t="n">
-        <v>1200.012243483072</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1200.012243483072</v>
+        <v>1165.299348969438</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>278.5931970766883</v>
+        <v>487.3073177281527</v>
       </c>
       <c r="C12" t="n">
-        <v>233.2192745605994</v>
+        <v>312.8542884470257</v>
       </c>
       <c r="D12" t="n">
-        <v>213.3639716643863</v>
+        <v>292.9989855508126</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893084</v>
+        <v>183.205623423969</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085396</v>
+        <v>165.7501722158921</v>
       </c>
       <c r="G12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197354</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K12" t="n">
         <v>144.7567744385588</v>
@@ -5148,22 +5148,22 @@
         <v>1210.282618467478</v>
       </c>
       <c r="T12" t="n">
-        <v>1014.173696043804</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U12" t="n">
-        <v>835.4933709670347</v>
+        <v>1044.207491618499</v>
       </c>
       <c r="V12" t="n">
-        <v>600.341262735292</v>
+        <v>938.1344901517947</v>
       </c>
       <c r="W12" t="n">
-        <v>475.1830127721286</v>
+        <v>683.897133423593</v>
       </c>
       <c r="X12" t="n">
-        <v>396.4106193316339</v>
+        <v>605.1247399830984</v>
       </c>
       <c r="Y12" t="n">
-        <v>317.7294273317182</v>
+        <v>526.4435479831826</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361476</v>
+        <v>188.9587444361478</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732789</v>
+        <v>149.101668273279</v>
       </c>
       <c r="D13" t="n">
         <v>128.0641356259814</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086264</v>
+        <v>109.2301488086265</v>
       </c>
       <c r="F13" t="n">
-        <v>91.4193080757542</v>
+        <v>91.41930807575426</v>
       </c>
       <c r="G13" t="n">
-        <v>52.0746832351544</v>
+        <v>52.07468323515444</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I13" t="n">
-        <v>38.40086731664381</v>
+        <v>38.40086731664382</v>
       </c>
       <c r="J13" t="n">
-        <v>38.40086731664381</v>
+        <v>38.40086731664382</v>
       </c>
       <c r="K13" t="n">
-        <v>181.1339868904809</v>
+        <v>181.1339868904808</v>
       </c>
       <c r="L13" t="n">
-        <v>358.3096712602255</v>
+        <v>358.3096712602254</v>
       </c>
       <c r="M13" t="n">
-        <v>541.4977910763532</v>
+        <v>541.4977910763531</v>
       </c>
       <c r="N13" t="n">
-        <v>731.1957680758725</v>
+        <v>731.1957680758724</v>
       </c>
       <c r="O13" t="n">
-        <v>895.7570362070836</v>
+        <v>895.7570362070835</v>
       </c>
       <c r="P13" t="n">
         <v>1035.764560945919</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093595</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="R13" t="n">
         <v>1049.09625252661</v>
       </c>
       <c r="S13" t="n">
-        <v>973.926241688072</v>
+        <v>973.9262416880722</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792929</v>
+        <v>878.1585453792932</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255916</v>
+        <v>718.0954637255918</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847428</v>
+        <v>592.490082284743</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128203</v>
+        <v>432.1520190128205</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798411</v>
+        <v>333.2415748798413</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013492</v>
+        <v>241.5281025013493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>580.0548504125899</v>
+        <v>1094.627000603449</v>
       </c>
       <c r="C14" t="n">
-        <v>580.0548504125899</v>
+        <v>854.7435904280753</v>
       </c>
       <c r="D14" t="n">
-        <v>350.8682585708773</v>
+        <v>854.7435904280753</v>
       </c>
       <c r="E14" t="n">
-        <v>94.15911273767125</v>
+        <v>598.034444594869</v>
       </c>
       <c r="F14" t="n">
-        <v>94.15911273767125</v>
+        <v>316.1276465702995</v>
       </c>
       <c r="G14" t="n">
-        <v>94.15911273767125</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H14" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360445</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006801</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838413</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M14" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569998</v>
@@ -5303,25 +5303,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.525954683111</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T14" t="n">
-        <v>1408.525954683111</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U14" t="n">
-        <v>1283.946015786248</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="V14" t="n">
-        <v>1081.962235207715</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="W14" t="n">
-        <v>1081.962235207715</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="X14" t="n">
-        <v>837.5755837116735</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="Y14" t="n">
-        <v>837.5755837116735</v>
+        <v>1352.147733902533</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278.5931970766886</v>
+        <v>278.593197076689</v>
       </c>
       <c r="C15" t="n">
-        <v>233.2192745605997</v>
+        <v>233.2192745606</v>
       </c>
       <c r="D15" t="n">
-        <v>213.3639716643865</v>
+        <v>213.3639716643867</v>
       </c>
       <c r="E15" t="n">
-        <v>183.2056234239691</v>
+        <v>183.2056234239692</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085405</v>
+        <v>36.67106545085415</v>
       </c>
       <c r="G15" t="n">
         <v>28.52719148360423</v>
@@ -5385,22 +5385,22 @@
         <v>1210.282618467477</v>
       </c>
       <c r="T15" t="n">
-        <v>1063.617788922416</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U15" t="n">
-        <v>964.5724777320734</v>
+        <v>1044.207491618499</v>
       </c>
       <c r="V15" t="n">
-        <v>729.4203695003307</v>
+        <v>809.0553833867559</v>
       </c>
       <c r="W15" t="n">
-        <v>604.2621195371672</v>
+        <v>554.8180266585543</v>
       </c>
       <c r="X15" t="n">
-        <v>525.4897260966725</v>
+        <v>476.0456332180595</v>
       </c>
       <c r="Y15" t="n">
-        <v>446.8085340967567</v>
+        <v>317.7294273317191</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361481</v>
+        <v>188.9587444361487</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732793</v>
+        <v>149.1016682732798</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259817</v>
+        <v>128.0641356259821</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086266</v>
+        <v>109.2301488086269</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575437</v>
+        <v>91.41930807575457</v>
       </c>
       <c r="G16" t="n">
-        <v>52.0746832351545</v>
+        <v>52.07468323515459</v>
       </c>
       <c r="H16" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="I16" t="n">
-        <v>38.40086731664376</v>
+        <v>38.40086731664366</v>
       </c>
       <c r="J16" t="n">
-        <v>91.27706835262254</v>
+        <v>126.7810270579757</v>
       </c>
       <c r="K16" t="n">
-        <v>234.0101879264595</v>
+        <v>269.5141466318125</v>
       </c>
       <c r="L16" t="n">
-        <v>411.185872296204</v>
+        <v>320.1793984611433</v>
       </c>
       <c r="M16" t="n">
-        <v>594.3739921123317</v>
+        <v>467.8635595719202</v>
       </c>
       <c r="N16" t="n">
-        <v>784.071969111851</v>
+        <v>657.5615365714393</v>
       </c>
       <c r="O16" t="n">
-        <v>948.633237243062</v>
+        <v>822.1228047026502</v>
       </c>
       <c r="P16" t="n">
-        <v>962.1303294414838</v>
+        <v>962.1303294414857</v>
       </c>
       <c r="Q16" t="n">
-        <v>1042.397671093596</v>
+        <v>1042.397671093597</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.09625252661</v>
+        <v>1049.096252526612</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880729</v>
+        <v>973.9262416880742</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792937</v>
+        <v>878.158545379295</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255923</v>
+        <v>718.0954637255934</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847435</v>
+        <v>592.4900822847445</v>
       </c>
       <c r="W16" t="n">
-        <v>432.152019012821</v>
+        <v>432.1520190128219</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798418</v>
+        <v>333.2415748798425</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013497</v>
+        <v>241.5281025013504</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.957807464666</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010966</v>
+        <v>687.3775825010958</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711877</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497867</v>
+        <v>434.0882152497859</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370215</v>
+        <v>268.4846024370208</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256212998</v>
+        <v>97.18733256213005</v>
       </c>
       <c r="H17" t="n">
         <v>28.52719148360423</v>
@@ -5513,13 +5513,13 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838412</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M17" t="n">
         <v>676.5957134965338</v>
@@ -5543,13 +5543,13 @@
         <v>1426.359574180211</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U17" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
         <v>1225.015861835152</v>
@@ -5558,7 +5558,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519451</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>747.1815965079769</v>
+        <v>520.1350137863994</v>
       </c>
       <c r="C18" t="n">
-        <v>572.7285672268499</v>
+        <v>520.1350137863994</v>
       </c>
       <c r="D18" t="n">
-        <v>423.7941575655987</v>
+        <v>520.1350137863994</v>
       </c>
       <c r="E18" t="n">
-        <v>264.5567025601432</v>
+        <v>360.8975587809439</v>
       </c>
       <c r="F18" t="n">
-        <v>264.5567025601432</v>
+        <v>214.3630008078289</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3337218278553</v>
+        <v>77.14002007554096</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554096</v>
       </c>
       <c r="I18" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197356</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148407</v>
       </c>
       <c r="M18" t="n">
         <v>562.204776565439</v>
@@ -5622,22 +5622,22 @@
         <v>1081.203511702439</v>
       </c>
       <c r="T18" t="n">
-        <v>1081.203511702439</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U18" t="n">
-        <v>963.888161464869</v>
+        <v>697.2054155578269</v>
       </c>
       <c r="V18" t="n">
-        <v>963.888161464869</v>
+        <v>697.2054155578269</v>
       </c>
       <c r="W18" t="n">
-        <v>955.0330967135097</v>
+        <v>688.3503508064675</v>
       </c>
       <c r="X18" t="n">
-        <v>747.1815965079769</v>
+        <v>688.3503508064675</v>
       </c>
       <c r="Y18" t="n">
-        <v>747.1815965079769</v>
+        <v>688.3503508064675</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="C19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="D19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="E19" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F19" t="n">
         <v>28.52719148360423</v>
@@ -5704,19 +5704,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U19" t="n">
-        <v>223.0683934284991</v>
+        <v>223.068393428499</v>
       </c>
       <c r="V19" t="n">
-        <v>213.7661971994546</v>
+        <v>213.7661971994544</v>
       </c>
       <c r="W19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="X19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.957807464666</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010966</v>
+        <v>687.3775825010958</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711877</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497867</v>
+        <v>434.0882152497859</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370215</v>
+        <v>268.4846024370208</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212997</v>
+        <v>97.18733256213005</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360423</v>
@@ -5750,19 +5750,19 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006829</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634144</v>
       </c>
       <c r="L20" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838416</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965342</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893067</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5771,31 +5771,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U20" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519454</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435.5055864945621</v>
+        <v>440.8565837438883</v>
       </c>
       <c r="C21" t="n">
-        <v>435.5055864945621</v>
+        <v>440.8565837438883</v>
       </c>
       <c r="D21" t="n">
-        <v>286.5711768333108</v>
+        <v>291.922174082637</v>
       </c>
       <c r="E21" t="n">
-        <v>127.3337218278553</v>
+        <v>132.6847190771815</v>
       </c>
       <c r="F21" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H21" t="n">
         <v>28.52719148360423</v>
@@ -5829,13 +5829,13 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197356</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148407</v>
       </c>
       <c r="M21" t="n">
         <v>562.204776565439</v>
@@ -5856,25 +5856,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1226.61330256149</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T21" t="n">
-        <v>1226.61330256149</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="U21" t="n">
-        <v>998.4888846061089</v>
+        <v>853.0790937470584</v>
       </c>
       <c r="V21" t="n">
-        <v>763.3367763743661</v>
+        <v>617.9269855153157</v>
       </c>
       <c r="W21" t="n">
-        <v>754.4817116230068</v>
+        <v>609.0719207639563</v>
       </c>
       <c r="X21" t="n">
-        <v>754.4817116230068</v>
+        <v>609.0719207639563</v>
       </c>
       <c r="Y21" t="n">
-        <v>603.7209235146302</v>
+        <v>609.0719207639563</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5941,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U22" t="n">
-        <v>223.0683934284991</v>
+        <v>223.068393428499</v>
       </c>
       <c r="V22" t="n">
-        <v>213.7661971994546</v>
+        <v>213.7661971994544</v>
       </c>
       <c r="W22" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="X22" t="n">
-        <v>28.52719148360423</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.52719148360423</v>
+        <v>169.7313191393361</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646648</v>
+        <v>810.9578074646658</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010955</v>
+        <v>687.3775825010965</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711883</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497859</v>
+        <v>434.0882152497864</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370212</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212997</v>
+        <v>97.18733256213008</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006829</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634144</v>
       </c>
       <c r="L23" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838416</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965341</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893067</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569998</v>
@@ -6008,31 +6008,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495153</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519442</v>
+        <v>952.1753555519454</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.8975587809439</v>
+        <v>388.8160300889559</v>
       </c>
       <c r="C24" t="n">
-        <v>360.8975587809439</v>
+        <v>214.3630008078289</v>
       </c>
       <c r="D24" t="n">
-        <v>360.8975587809439</v>
+        <v>214.3630008078289</v>
       </c>
       <c r="E24" t="n">
-        <v>360.8975587809439</v>
+        <v>214.3630008078289</v>
       </c>
       <c r="F24" t="n">
         <v>214.3630008078289</v>
       </c>
       <c r="G24" t="n">
-        <v>77.14002007554095</v>
+        <v>77.14002007554096</v>
       </c>
       <c r="H24" t="n">
-        <v>77.14002007554095</v>
+        <v>77.14002007554096</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197356</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148407</v>
       </c>
       <c r="M24" t="n">
         <v>562.204776565439</v>
@@ -6090,28 +6090,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R24" t="n">
-        <v>1173.080926010103</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S24" t="n">
-        <v>1027.671135151053</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T24" t="n">
-        <v>1027.671135151053</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="U24" t="n">
-        <v>850.2870237408881</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="V24" t="n">
-        <v>615.1349155091455</v>
+        <v>846.0514034706966</v>
       </c>
       <c r="W24" t="n">
-        <v>360.8975587809439</v>
+        <v>837.1963387193373</v>
       </c>
       <c r="X24" t="n">
-        <v>360.8975587809439</v>
+        <v>629.3448385138045</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.8975587809439</v>
+        <v>557.0313671090239</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C25" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D25" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702735</v>
+        <v>44.74987851702737</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635805</v>
+        <v>95.41513034635807</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6178,19 +6178,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U25" t="n">
-        <v>223.0683934284991</v>
+        <v>223.068393428499</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994546</v>
+        <v>213.7661971994544</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393364</v>
+        <v>169.7313191393361</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.7313191393364</v>
+        <v>28.52719148360423</v>
       </c>
     </row>
     <row r="26">
@@ -6203,64 +6203,64 @@
         <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977011</v>
+        <v>855.5350970977017</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551125</v>
+        <v>74.83913835551117</v>
       </c>
       <c r="J26" t="n">
-        <v>244.0198165380642</v>
+        <v>244.019816538064</v>
       </c>
       <c r="K26" t="n">
-        <v>754.8757357373311</v>
+        <v>491.4654771874994</v>
       </c>
       <c r="L26" t="n">
-        <v>1071.331345883847</v>
+        <v>1108.245729290215</v>
       </c>
       <c r="M26" t="n">
-        <v>1328.28417439654</v>
+        <v>1479.187309628997</v>
       </c>
       <c r="N26" t="n">
-        <v>1707.997328515402</v>
+        <v>1858.900463747859</v>
       </c>
       <c r="O26" t="n">
-        <v>2059.566837122183</v>
+        <v>2523.280143291006</v>
       </c>
       <c r="P26" t="n">
-        <v>2660.404988466334</v>
+        <v>2805.537573545389</v>
       </c>
       <c r="Q26" t="n">
-        <v>3062.775604227649</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W26" t="n">
         <v>2420.937384273296</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315.7822431965113</v>
+        <v>247.6032596306202</v>
       </c>
       <c r="C27" t="n">
-        <v>257.6323991271886</v>
+        <v>189.4534155612974</v>
       </c>
       <c r="D27" t="n">
-        <v>225.0011746777416</v>
+        <v>156.8221911118503</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181987</v>
+        <v>113.8879213181989</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688788</v>
+        <v>83.65654855688801</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K27" t="n">
         <v>178.9663359913588</v>
@@ -6336,19 +6336,19 @@
         <v>1035.60733604337</v>
       </c>
       <c r="U27" t="n">
-        <v>923.7861032997934</v>
+        <v>923.7861032997932</v>
       </c>
       <c r="V27" t="n">
-        <v>804.9371802798549</v>
+        <v>736.7581967139641</v>
       </c>
       <c r="W27" t="n">
-        <v>667.0030087634576</v>
+        <v>598.8240251975667</v>
       </c>
       <c r="X27" t="n">
-        <v>575.454693769729</v>
+        <v>390.9725249920339</v>
       </c>
       <c r="Y27" t="n">
-        <v>367.6943950047751</v>
+        <v>299.5154114388841</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147534</v>
+        <v>302.5256054147542</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986507</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981193</v>
+        <v>216.0791534981199</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275304</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414243</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280657</v>
+        <v>65.43852314280672</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K28" t="n">
-        <v>78.95944006982737</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L28" t="n">
-        <v>369.9221573212141</v>
+        <v>267.193653123442</v>
       </c>
       <c r="M28" t="n">
-        <v>540.5885964230173</v>
+        <v>500.595904699507</v>
       </c>
       <c r="N28" t="n">
-        <v>887.8644323842291</v>
+        <v>563.7834491586124</v>
       </c>
       <c r="O28" t="n">
-        <v>941.9238150716949</v>
+        <v>877.2342862777225</v>
       </c>
       <c r="P28" t="n">
-        <v>1203.066156777107</v>
+        <v>1138.376627983134</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714894</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703668</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762842</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511277</v>
+        <v>584.0466446511289</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649146</v>
+        <v>472.3602789649157</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331888</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="29">
@@ -6446,58 +6446,58 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.535097097702</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198987</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551132</v>
+        <v>74.83913835551124</v>
       </c>
       <c r="J29" t="n">
-        <v>244.0198165380643</v>
+        <v>244.0198165380641</v>
       </c>
       <c r="K29" t="n">
-        <v>491.4654771874999</v>
+        <v>491.4654771874996</v>
       </c>
       <c r="L29" t="n">
-        <v>807.9210873340164</v>
+        <v>807.921087334016</v>
       </c>
       <c r="M29" t="n">
-        <v>1178.862667672799</v>
+        <v>1573.56253198172</v>
       </c>
       <c r="N29" t="n">
-        <v>1955.229986498301</v>
+        <v>2349.929850807222</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.13631003804</v>
+        <v>2701.499359414004</v>
       </c>
       <c r="P29" t="n">
-        <v>2774.393740292423</v>
+        <v>2983.756789668387</v>
       </c>
       <c r="Q29" t="n">
-        <v>3062.775604227649</v>
+        <v>3062.77560422765</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W29" t="n">
         <v>2420.937384273296</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.6032596306193</v>
+        <v>315.782243196511</v>
       </c>
       <c r="C30" t="n">
-        <v>189.4534155612966</v>
+        <v>257.6323991271882</v>
       </c>
       <c r="D30" t="n">
-        <v>156.8221911118497</v>
+        <v>225.0011746777411</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8879213181985</v>
+        <v>182.0669048840899</v>
       </c>
       <c r="F30" t="n">
-        <v>83.6565485568878</v>
+        <v>83.65654855688794</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K30" t="n">
         <v>178.9663359913588</v>
@@ -6567,25 +6567,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S30" t="n">
-        <v>1231.716258467044</v>
+        <v>1115.413073255239</v>
       </c>
       <c r="T30" t="n">
-        <v>1083.731537689282</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U30" t="n">
-        <v>971.9103049457053</v>
+        <v>923.7861032997932</v>
       </c>
       <c r="V30" t="n">
-        <v>736.7581967139627</v>
+        <v>804.9371802798547</v>
       </c>
       <c r="W30" t="n">
-        <v>598.8240251975653</v>
+        <v>667.0030087634573</v>
       </c>
       <c r="X30" t="n">
-        <v>507.2757102038369</v>
+        <v>575.4546937697287</v>
       </c>
       <c r="Y30" t="n">
-        <v>299.5154114388829</v>
+        <v>367.6943950047748</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147528</v>
+        <v>302.5256054147537</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986503</v>
+        <v>249.892607698651</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981189</v>
+        <v>216.0791534981195</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275301</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414241</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475905</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H31" t="n">
-        <v>65.4385231428065</v>
+        <v>65.43852314280664</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K31" t="n">
-        <v>298.6245205771228</v>
+        <v>78.95944006982739</v>
       </c>
       <c r="L31" t="n">
-        <v>557.906969249879</v>
+        <v>404.4633982513863</v>
       </c>
       <c r="M31" t="n">
-        <v>614.5846565255929</v>
+        <v>637.8656498274513</v>
       </c>
       <c r="N31" t="n">
-        <v>677.7722009846982</v>
+        <v>815.041946112646</v>
       </c>
       <c r="O31" t="n">
-        <v>877.234286277719</v>
+        <v>1014.504031405667</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983131</v>
+        <v>1252.365379809223</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714892</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931085</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539314</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677301</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703657</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762832</v>
+        <v>757.1606294762846</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511269</v>
+        <v>584.0466446511282</v>
       </c>
       <c r="X31" t="n">
-        <v>472.360278964914</v>
+        <v>472.360278964915</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331882</v>
+        <v>367.8708850331892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970976998</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198967</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I32" t="n">
-        <v>74.8391383555113</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J32" t="n">
-        <v>244.0198165380642</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K32" t="n">
-        <v>491.4654771874998</v>
+        <v>389.0169337517682</v>
       </c>
       <c r="L32" t="n">
-        <v>807.9210873340163</v>
+        <v>705.4725438982846</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.288406159519</v>
+        <v>1481.839862723787</v>
       </c>
       <c r="N32" t="n">
-        <v>2360.655724985021</v>
+        <v>2258.20718154929</v>
       </c>
       <c r="O32" t="n">
-        <v>2712.225233591802</v>
+        <v>2609.776690156071</v>
       </c>
       <c r="P32" t="n">
-        <v>2938.504973616819</v>
+        <v>2870.596829219641</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227649</v>
+        <v>3062.77560422765</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769877</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>480.209630054228</v>
+        <v>247.6032596306199</v>
       </c>
       <c r="C33" t="n">
-        <v>305.756600773101</v>
+        <v>189.4534155612971</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118497</v>
+        <v>156.82219111185</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181986</v>
+        <v>113.8879213181987</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688783</v>
+        <v>83.65654855688794</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K33" t="n">
         <v>178.9663359913588</v>
@@ -6807,22 +6807,22 @@
         <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>1151.910521255174</v>
+        <v>1083.731537689283</v>
       </c>
       <c r="U33" t="n">
-        <v>1040.089288511598</v>
+        <v>971.9103049457065</v>
       </c>
       <c r="V33" t="n">
-        <v>921.2403654916595</v>
+        <v>853.0613819257679</v>
       </c>
       <c r="W33" t="n">
-        <v>783.3061939752622</v>
+        <v>715.1272104093705</v>
       </c>
       <c r="X33" t="n">
-        <v>691.7578789815337</v>
+        <v>507.2757102038376</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.3007654283841</v>
+        <v>299.5154114388837</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.525605414753</v>
+        <v>302.5256054147537</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986504</v>
+        <v>249.892607698651</v>
       </c>
       <c r="D34" t="n">
-        <v>216.079153498119</v>
+        <v>216.0791534981195</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275303</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414242</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280653</v>
+        <v>65.43852314280664</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K34" t="n">
-        <v>192.9481918959168</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L34" t="n">
-        <v>243.6134437252475</v>
+        <v>392.1618608305482</v>
       </c>
       <c r="M34" t="n">
-        <v>491.9076147257107</v>
+        <v>739.5528642327025</v>
       </c>
       <c r="N34" t="n">
-        <v>725.1946988608332</v>
+        <v>972.8399483678251</v>
       </c>
       <c r="O34" t="n">
-        <v>877.2342862777198</v>
+        <v>1124.879535784712</v>
       </c>
       <c r="P34" t="n">
-        <v>1138.376627983132</v>
+        <v>1138.376627983133</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714893</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539314</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677301</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.541932470366</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762835</v>
+        <v>757.1606294762846</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511272</v>
+        <v>584.0466446511282</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649142</v>
+        <v>472.360278964915</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331884</v>
+        <v>367.8708850331892</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291581</v>
+        <v>955.8582442291586</v>
       </c>
       <c r="C35" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497065</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039155</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666305</v>
+        <v>509.3796186666308</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280002</v>
+        <v>53.11437734588112</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926358</v>
+        <v>108.3063037023447</v>
       </c>
       <c r="K35" t="n">
-        <v>440.6163099044362</v>
+        <v>241.7632125256908</v>
       </c>
       <c r="L35" t="n">
-        <v>703.7613884436305</v>
+        <v>444.2300708461179</v>
       </c>
       <c r="M35" t="n">
-        <v>960.7142169563233</v>
+        <v>701.1828993588107</v>
       </c>
       <c r="N35" t="n">
-        <v>1226.438619249096</v>
+        <v>966.9073016515832</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029788</v>
+        <v>1390.250625867484</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458081</v>
+        <v>1558.519304295777</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077640001</v>
+        <v>1636.709327477697</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077640001</v>
+        <v>1636.709327477697</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W35" t="n">
         <v>1439.525331947293</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>661.8539627486854</v>
+        <v>594.8160919935374</v>
       </c>
       <c r="C36" t="n">
-        <v>487.4009334675583</v>
+        <v>594.8160919935374</v>
       </c>
       <c r="D36" t="n">
-        <v>487.4009334675583</v>
+        <v>445.8816823322861</v>
       </c>
       <c r="E36" t="n">
-        <v>328.1634784621028</v>
+        <v>317.967100258203</v>
       </c>
       <c r="F36" t="n">
-        <v>181.6289204889878</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="G36" t="n">
-        <v>181.6289204889878</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H36" t="n">
-        <v>82.82239014473674</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116937</v>
       </c>
       <c r="K36" t="n">
         <v>150.4391445077546</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N36" t="n">
         <v>822.2200346112102</v>
@@ -7041,25 +7041,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S36" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T36" t="n">
-        <v>1086.885881771635</v>
+        <v>1036.186750207012</v>
       </c>
       <c r="U36" t="n">
-        <v>858.7614638162541</v>
+        <v>1030.24161311259</v>
       </c>
       <c r="V36" t="n">
-        <v>845.788636445471</v>
+        <v>1017.268785741807</v>
       </c>
       <c r="W36" t="n">
-        <v>661.8539627486854</v>
+        <v>763.0314290136055</v>
       </c>
       <c r="X36" t="n">
-        <v>661.8539627486854</v>
+        <v>763.0314290136055</v>
       </c>
       <c r="Y36" t="n">
-        <v>661.8539627486854</v>
+        <v>763.0314290136055</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="C37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="D37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622315</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L37" t="n">
         <v>101.0975004155539</v>
@@ -7123,22 +7123,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267345</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689545</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3750228240272</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W37" t="n">
-        <v>103.1371336480261</v>
+        <v>40.0198315898579</v>
       </c>
       <c r="X37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291587</v>
+        <v>955.8582442291595</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497068</v>
+        <v>809.0750081497075</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039161</v>
+        <v>672.9885904039165</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666315</v>
+        <v>509.3796186666319</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379837</v>
+        <v>320.5729947379839</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472084</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J38" t="n">
-        <v>150.0797081280306</v>
+        <v>89.40148790926359</v>
       </c>
       <c r="K38" t="n">
-        <v>283.5366169513768</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L38" t="n">
-        <v>486.0034752718039</v>
+        <v>486.0034752718053</v>
       </c>
       <c r="M38" t="n">
-        <v>742.9563037844966</v>
+        <v>742.956303784498</v>
       </c>
       <c r="N38" t="n">
-        <v>1008.680706077269</v>
+        <v>1008.680706077271</v>
       </c>
       <c r="O38" t="n">
-        <v>1246.261462857961</v>
+        <v>1246.261462857962</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458081</v>
+        <v>1414.530141286256</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.3814262195068</v>
+        <v>281.9505015583024</v>
       </c>
       <c r="C39" t="n">
-        <v>342.3814262195068</v>
+        <v>281.9505015583024</v>
       </c>
       <c r="D39" t="n">
-        <v>193.4470165582555</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="E39" t="n">
-        <v>34.20956155280002</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155280002</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280002</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116937</v>
       </c>
       <c r="K39" t="n">
         <v>150.4391445077546</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N39" t="n">
         <v>822.2200346112102</v>
@@ -7275,28 +7275,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R39" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="S39" t="n">
-        <v>1033.353505220249</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T39" t="n">
-        <v>837.2445827965751</v>
+        <v>1207.224683238582</v>
       </c>
       <c r="U39" t="n">
-        <v>831.2994457021539</v>
+        <v>979.1002652832005</v>
       </c>
       <c r="V39" t="n">
-        <v>596.1473374704112</v>
+        <v>743.9481570514579</v>
       </c>
       <c r="W39" t="n">
-        <v>510.5967632395748</v>
+        <v>489.7108003232563</v>
       </c>
       <c r="X39" t="n">
-        <v>510.5967632395748</v>
+        <v>489.7108003232563</v>
       </c>
       <c r="Y39" t="n">
-        <v>510.5967632395748</v>
+        <v>281.9505015583024</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622315</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L40" t="n">
         <v>101.0975004155539</v>
@@ -7360,22 +7360,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267346</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689548</v>
+        <v>202.8802301689545</v>
       </c>
       <c r="V40" t="n">
-        <v>170.3750228240276</v>
+        <v>170.3750228240272</v>
       </c>
       <c r="W40" t="n">
-        <v>103.1371336480267</v>
+        <v>103.1371336480261</v>
       </c>
       <c r="X40" t="n">
-        <v>97.32686361096906</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155280002</v>
+        <v>97.32686361096835</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>955.8582442291579</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497059</v>
+        <v>809.0750081497058</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039149</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666309</v>
+        <v>509.3796186666304</v>
       </c>
       <c r="F41" t="n">
-        <v>320.572994737983</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472084</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926355</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K41" t="n">
         <v>222.8583967326097</v>
@@ -7418,34 +7418,34 @@
         <v>425.3252550530368</v>
       </c>
       <c r="M41" t="n">
-        <v>848.6685792689368</v>
+        <v>682.2780835657295</v>
       </c>
       <c r="N41" t="n">
-        <v>1114.392981561709</v>
+        <v>1105.62140778163</v>
       </c>
       <c r="O41" t="n">
-        <v>1351.973738342401</v>
+        <v>1464.019376029788</v>
       </c>
       <c r="P41" t="n">
-        <v>1558.519304295775</v>
+        <v>1632.288054458081</v>
       </c>
       <c r="Q41" t="n">
-        <v>1636.709327477695</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="R41" t="n">
-        <v>1636.709327477695</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839057</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356446</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W41" t="n">
         <v>1439.525331947292</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.3814262195067</v>
+        <v>578.5082436991745</v>
       </c>
       <c r="C42" t="n">
-        <v>342.3814262195067</v>
+        <v>578.5082436991745</v>
       </c>
       <c r="D42" t="n">
-        <v>193.4470165582555</v>
+        <v>429.5738340379232</v>
       </c>
       <c r="E42" t="n">
-        <v>34.2095615528</v>
+        <v>429.5738340379232</v>
       </c>
       <c r="F42" t="n">
-        <v>34.2095615528</v>
+        <v>283.0392760648082</v>
       </c>
       <c r="G42" t="n">
-        <v>34.2095615528</v>
+        <v>145.8162953325203</v>
       </c>
       <c r="H42" t="n">
-        <v>34.2095615528</v>
+        <v>82.82239014473674</v>
       </c>
       <c r="I42" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116932</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K42" t="n">
         <v>150.4391445077546</v>
@@ -7512,28 +7512,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R42" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S42" t="n">
-        <v>1086.885881771635</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T42" t="n">
-        <v>991.6035846385133</v>
+        <v>837.2445827965751</v>
       </c>
       <c r="U42" t="n">
-        <v>763.4791666831325</v>
+        <v>831.2994457021538</v>
       </c>
       <c r="V42" t="n">
-        <v>750.5063393123495</v>
+        <v>818.3266183313706</v>
       </c>
       <c r="W42" t="n">
-        <v>718.4482634451076</v>
+        <v>786.2685424641285</v>
       </c>
       <c r="X42" t="n">
-        <v>510.5967632395748</v>
+        <v>786.2685424641285</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.5967632395748</v>
+        <v>578.5082436991745</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="C43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="D43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="E43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="F43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="G43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="H43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="I43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="J43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622313</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
         <v>157.7751876912677</v>
@@ -7597,22 +7597,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267346</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689548</v>
+        <v>202.8802301689545</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3750228240276</v>
+        <v>170.3750228240272</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480267</v>
+        <v>103.1371336480261</v>
       </c>
       <c r="X43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.2095615528</v>
+        <v>97.32686361096835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291575</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C44" t="n">
         <v>809.0750081497058</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039149</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666308</v>
+        <v>509.3796186666305</v>
       </c>
       <c r="F44" t="n">
-        <v>320.572994737983</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472084</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H44" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="I44" t="n">
-        <v>34.2095615528</v>
+        <v>94.8877817715673</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926355</v>
+        <v>150.0797081280309</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326097</v>
+        <v>283.536616951377</v>
       </c>
       <c r="L44" t="n">
-        <v>643.0831682248634</v>
+        <v>486.0034752718041</v>
       </c>
       <c r="M44" t="n">
-        <v>900.0359967375562</v>
+        <v>742.9563037844969</v>
       </c>
       <c r="N44" t="n">
-        <v>1226.438619249095</v>
+        <v>1008.680706077269</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.019376029787</v>
+        <v>1246.261462857961</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.28805445808</v>
+        <v>1414.530141286255</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640001</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839057</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356446</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W44" t="n">
         <v>1439.525331947292</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>333.4322152366188</v>
+        <v>333.0006479471133</v>
       </c>
       <c r="C45" t="n">
-        <v>333.4322152366188</v>
+        <v>333.0006479471133</v>
       </c>
       <c r="D45" t="n">
-        <v>330.6699972905434</v>
+        <v>333.0006479471133</v>
       </c>
       <c r="E45" t="n">
-        <v>171.4325422850879</v>
+        <v>173.7631929416578</v>
       </c>
       <c r="F45" t="n">
-        <v>171.4325422850879</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="G45" t="n">
-        <v>34.2095615528</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="I45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116932</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K45" t="n">
         <v>150.4391445077546</v>
@@ -7749,28 +7749,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R45" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="S45" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T45" t="n">
-        <v>982.6543736556255</v>
+        <v>1036.186750207012</v>
       </c>
       <c r="U45" t="n">
-        <v>976.7092365612043</v>
+        <v>1030.24161311259</v>
       </c>
       <c r="V45" t="n">
-        <v>963.7364091904213</v>
+        <v>795.0895048808477</v>
       </c>
       <c r="W45" t="n">
-        <v>709.4990524622197</v>
+        <v>540.8521481526461</v>
       </c>
       <c r="X45" t="n">
-        <v>501.6475522566868</v>
+        <v>333.0006479471133</v>
       </c>
       <c r="Y45" t="n">
-        <v>501.6475522566868</v>
+        <v>333.0006479471133</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="C46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="D46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="E46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="F46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="G46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="H46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="I46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="J46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622313</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
         <v>157.7751876912677</v>
@@ -7834,22 +7834,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T46" t="n">
-        <v>269.8431377267346</v>
+        <v>206.7258356685661</v>
       </c>
       <c r="U46" t="n">
-        <v>202.8802301689548</v>
+        <v>139.7629281107862</v>
       </c>
       <c r="V46" t="n">
-        <v>170.3750228240276</v>
+        <v>107.2577207658588</v>
       </c>
       <c r="W46" t="n">
-        <v>103.1371336480267</v>
+        <v>40.01983158985779</v>
       </c>
       <c r="X46" t="n">
-        <v>97.32686361096906</v>
+        <v>34.20956155280002</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280002</v>
       </c>
     </row>
   </sheetData>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>315.9698696326923</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>32.21478034654334</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>16.17024959259456</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>398.6867316251735</v>
       </c>
       <c r="N29" t="n">
-        <v>434.5392335520796</v>
+        <v>400.6607724309504</v>
       </c>
       <c r="O29" t="n">
-        <v>187.2089039726851</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>95.58428789629909</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>111.4904084636816</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>23.88140778733828</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>409.5209479663841</v>
+        <v>409.5209479663845</v>
       </c>
       <c r="N32" t="n">
-        <v>400.6607724309499</v>
+        <v>400.6607724309504</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>58.59703191588159</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10507,13 +10507,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>43.30513982231793</v>
       </c>
       <c r="M34" t="n">
-        <v>78.41185040268684</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.39277004678988</v>
+        <v>184.9799010837631</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232952</v>
       </c>
       <c r="E11" t="n">
-        <v>254.142054374874</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212896</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.09443458014329</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V11" t="n">
         <v>199.9639427727471</v>
@@ -23324,7 +23324,7 @@
         <v>241.9427849810813</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>226.8947259232954</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358284</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>118.1380909859004</v>
+        <v>183.1136930274269</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212907</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014334</v>
+        <v>83.09443458014344</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078954</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200253</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>184.9799010837642</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
         <v>122891.4508075558</v>
@@ -26320,7 +26320,7 @@
         <v>122891.4508075558</v>
       </c>
       <c r="E2" t="n">
-        <v>105456.0326747522</v>
+        <v>105456.0326747521</v>
       </c>
       <c r="F2" t="n">
         <v>105456.0326747522</v>
@@ -26335,7 +26335,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796427</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796427</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.122687749</v>
+        <v>92112.12268774901</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774898</v>
+        <v>92112.12268774901</v>
       </c>
       <c r="M3" t="n">
         <v>83853.86775413096</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,10 +26433,10 @@
         <v>228781.8774821127</v>
       </c>
       <c r="H4" t="n">
-        <v>228781.8774821128</v>
+        <v>228781.8774821127</v>
       </c>
       <c r="I4" t="n">
-        <v>228781.8774821128</v>
+        <v>228781.8774821127</v>
       </c>
       <c r="J4" t="n">
         <v>233178.5095097217</v>
@@ -26445,7 +26445,7 @@
         <v>233178.5095097217</v>
       </c>
       <c r="L4" t="n">
-        <v>233178.5095097217</v>
+        <v>233178.5095097218</v>
       </c>
       <c r="M4" t="n">
         <v>229069.74047253</v>
@@ -26454,10 +26454,10 @@
         <v>229069.7404725301</v>
       </c>
       <c r="O4" t="n">
+        <v>229069.7404725301</v>
+      </c>
+      <c r="P4" t="n">
         <v>229069.74047253</v>
-      </c>
-      <c r="P4" t="n">
-        <v>229069.7404725301</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="F5" t="n">
         <v>47553.01820892902</v>
@@ -26491,13 +26491,13 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948882</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
         <v>59620.18961222715</v>
@@ -26506,10 +26506,10 @@
         <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222715</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222715</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="C6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020435</v>
       </c>
       <c r="D6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="E6" t="n">
-        <v>-870037.8424298137</v>
+        <v>-870332.8463098952</v>
       </c>
       <c r="F6" t="n">
-        <v>-103771.3073073804</v>
+        <v>-104066.3111874618</v>
       </c>
       <c r="G6" t="n">
         <v>-254970.4704519437</v>
@@ -26543,10 +26543,10 @@
         <v>-162858.3477641947</v>
       </c>
       <c r="J6" t="n">
-        <v>-294395.2921960779</v>
+        <v>-294395.2921960781</v>
       </c>
       <c r="K6" t="n">
-        <v>-182511.2106595678</v>
+        <v>-182511.2106595679</v>
       </c>
       <c r="L6" t="n">
         <v>-274623.3333473168</v>
@@ -26555,7 +26555,7 @@
         <v>-249387.5323592456</v>
       </c>
       <c r="N6" t="n">
-        <v>-165533.6646051149</v>
+        <v>-165533.6646051148</v>
       </c>
       <c r="O6" t="n">
         <v>-165533.6646051147</v>
@@ -26695,37 +26695,37 @@
         <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
+        <v>115.1401533596861</v>
+      </c>
+      <c r="K2" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="K2" t="n">
-        <v>115.1401533596863</v>
-      </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
+        <v>219.9574880523499</v>
+      </c>
+      <c r="N2" t="n">
         <v>219.95748805235</v>
       </c>
-      <c r="N2" t="n">
-        <v>219.9574880523501</v>
-      </c>
       <c r="O2" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
         <v>356.5898935450529</v>
@@ -26808,28 +26808,28 @@
         <v>356.5898935450529</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450527</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="M4" t="n">
+        <v>427.6195194100005</v>
+      </c>
+      <c r="N4" t="n">
+        <v>427.6195194100005</v>
+      </c>
+      <c r="O4" t="n">
         <v>427.6195194100002</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>427.6195194100002</v>
-      </c>
-      <c r="O4" t="n">
-        <v>427.61951941</v>
-      </c>
-      <c r="P4" t="n">
-        <v>427.61951941</v>
       </c>
     </row>
   </sheetData>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
         <v>104.8173346926637</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,19 +28169,19 @@
         <v>127.7883156973878</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>127.7883156973878</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>48.94965194982579</v>
       </c>
       <c r="F12" t="n">
         <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
@@ -28220,16 +28220,16 @@
         <v>127.7883156973878</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U12" t="n">
-        <v>48.94965194982564</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>127.7883156973878</v>
@@ -28290,10 +28290,10 @@
         <v>127.7883156973878</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.41030407674484</v>
+        <v>60.17654794847747</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973878</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
         <v>127.7883156973878</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -28454,25 +28454,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T15" t="n">
-        <v>48.94965194982638</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973877</v>
+        <v>48.94965194982737</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="J16" t="n">
-        <v>91.92573114652575</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973877</v>
+        <v>91.92573114652842</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="R16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,19 +28694,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>109.7009770406325</v>
+        <v>39.83289179209771</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28728,10 +28728,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>6.641876267394622</v>
       </c>
       <c r="F19" t="n">
-        <v>5.628961643756412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.7394942895816</v>
@@ -28776,13 +28776,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="21">
@@ -28889,13 +28889,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>41.95326007574239</v>
       </c>
       <c r="G21" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
         <v>48.12670030601736</v>
@@ -28928,7 +28928,7 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>194.1478331994369</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>56.42951555001144</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>40.03989380276275</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29013,16 +29013,16 @@
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X22" t="n">
-        <v>85.91756900986232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29092,19 +29092,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29126,7 +29126,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>50.23290347976382</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>134.0923590865716</v>
       </c>
     </row>
     <row r="25">
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>6.641876267394309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29250,16 +29250,16 @@
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>85.9175690098626</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K26" t="n">
-        <v>57.06570902067443</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596862</v>
+        <v>0.8371630074172992</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E27" t="n">
-        <v>47.64295962945346</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29405,22 +29405,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596862</v>
+        <v>47.64295962945448</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="28">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J28" t="n">
         <v>4.879185747056184</v>
@@ -29460,46 +29460,46 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>80.25001100597686</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N29" t="n">
-        <v>81.26169223855661</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.8371630074179939</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596863</v>
+        <v>47.64295962945398</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29639,22 +29639,22 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>47.64295962945269</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
         <v>4.879185747056184</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596863</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>93.4863238740169</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.54606811001047</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.64295962945279</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29876,25 +29876,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1401533596863</v>
+        <v>47.64295962945405</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J34" t="n">
         <v>4.879185747056184</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="35">
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I35" t="n">
-        <v>102.9155217242246</v>
+        <v>122.0112952525893</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>61.29113153410827</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>187.6389570052614</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S35" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T35" t="n">
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>31.00964420205867</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V36" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W36" t="n">
-        <v>69.59965620110188</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>82.93491898534461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7394942895816</v>
@@ -30195,19 +30195,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.95748805235</v>
+        <v>157.4713590147637</v>
       </c>
       <c r="U37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
       </c>
       <c r="J38" t="n">
-        <v>61.29113153410815</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>61.29113153410947</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>219.9574880523501</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="R38" t="n">
         <v>40.33000427628926</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30317,7 +30317,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>48.12670030601736</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>169.327553701254</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523501</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>166.9999146723916</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>117.3458511443507</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30432,22 +30432,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.0985243145074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30490,16 +30490,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>168.0712077810174</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>159.2110322455835</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>122.037587340875</v>
       </c>
       <c r="P41" t="n">
-        <v>38.66352275260641</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523501</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T41" t="n">
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -30545,19 +30545,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>35.45449890490291</v>
       </c>
       <c r="I42" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>99.81835903764643</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V42" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W42" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>82.93491898534461</v>
       </c>
       <c r="G43" t="n">
         <v>166.7394942895816</v>
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X43" t="n">
-        <v>157.4713590147627</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I44" t="n">
-        <v>102.9155217242246</v>
+        <v>164.2066532583329</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,13 +30724,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>219.9574880523501</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>61.29113153410731</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="R44" t="n">
         <v>40.33000427628926</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>144.7104697980241</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>104.7295823592233</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>48.12670030601736</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S45" t="n">
         <v>143.9556929504599</v>
@@ -30830,10 +30830,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V45" t="n">
-        <v>219.9574880523501</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30906,22 +30906,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523501</v>
+        <v>157.4713590147633</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523501</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.0985243145074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -35562,13 +35562,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.973409932363232</v>
+        <v>9.973409932363218</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>144.1748682564011</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L13" t="n">
         <v>178.9653377472168</v>
@@ -35586,10 +35586,10 @@
         <v>141.4217421604401</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.700111260278105</v>
+        <v>13.46635513201074</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871732186</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P14" t="n">
-        <v>169.9683620487816</v>
+        <v>169.9683620487818</v>
       </c>
       <c r="Q14" t="n">
         <v>78.97982139587825</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932363161</v>
+        <v>9.973409932363062</v>
       </c>
       <c r="J16" t="n">
-        <v>53.41030407674624</v>
+        <v>89.27288862760808</v>
       </c>
       <c r="K16" t="n">
-        <v>144.174868256401</v>
+        <v>144.1748682564009</v>
       </c>
       <c r="L16" t="n">
-        <v>178.9653377472167</v>
+        <v>51.17702204982899</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647754</v>
+        <v>149.1759203139162</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813324</v>
       </c>
       <c r="O16" t="n">
-        <v>166.2235031628394</v>
+        <v>166.2235031628393</v>
       </c>
       <c r="P16" t="n">
-        <v>13.6334264630523</v>
+        <v>141.4217421604399</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092097</v>
+        <v>81.07812288092087</v>
       </c>
       <c r="R16" t="n">
-        <v>6.766243871732115</v>
+        <v>6.766243871732016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546163</v>
+        <v>12.22463163546152</v>
       </c>
       <c r="J26" t="n">
-        <v>170.8895739217706</v>
+        <v>170.8895739217705</v>
       </c>
       <c r="K26" t="n">
-        <v>516.0160799992595</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611277</v>
+        <v>623.0103556593092</v>
       </c>
       <c r="M26" t="n">
-        <v>259.5483116289826</v>
+        <v>374.6884649886687</v>
       </c>
       <c r="N26" t="n">
-        <v>383.548640524103</v>
+        <v>383.5486405241028</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644253</v>
+        <v>671.0905853971175</v>
       </c>
       <c r="P26" t="n">
-        <v>606.9072235799504</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q26" t="n">
-        <v>406.4349654154692</v>
+        <v>194.1199747555644</v>
       </c>
       <c r="R26" t="n">
-        <v>74.81014908339696</v>
+        <v>140.5265689563793</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>16.38655255901327</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L28" t="n">
-        <v>293.9017345973602</v>
+        <v>83.39180239637233</v>
       </c>
       <c r="M28" t="n">
-        <v>172.390342527074</v>
+        <v>235.7598500768334</v>
       </c>
       <c r="N28" t="n">
-        <v>350.7836726880928</v>
+        <v>63.82580248394481</v>
       </c>
       <c r="O28" t="n">
-        <v>54.60543705804628</v>
+        <v>316.6170071910203</v>
       </c>
       <c r="P28" t="n">
-        <v>263.7801431367797</v>
+        <v>263.7801431367795</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.42996054321949</v>
+        <v>133.7729189209708</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546171</v>
+        <v>12.22463163546159</v>
       </c>
       <c r="J29" t="n">
-        <v>170.8895739217707</v>
+        <v>170.8895739217706</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9451117671067</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611278</v>
+        <v>319.6521314611277</v>
       </c>
       <c r="M29" t="n">
-        <v>374.6884649886688</v>
+        <v>773.3751966138423</v>
       </c>
       <c r="N29" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="O29" t="n">
-        <v>542.3296197371104</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P29" t="n">
-        <v>285.1085154084678</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.2948120557829</v>
+        <v>79.81698440329623</v>
       </c>
       <c r="R29" t="n">
-        <v>74.81014908339704</v>
+        <v>74.81014908339692</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>238.2704722633521</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L31" t="n">
-        <v>261.9014633058144</v>
+        <v>328.7918769510696</v>
       </c>
       <c r="M31" t="n">
-        <v>57.25018916738773</v>
+        <v>235.7598500768334</v>
       </c>
       <c r="N31" t="n">
-        <v>63.82580248394481</v>
+        <v>178.965955843631</v>
       </c>
       <c r="O31" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P31" t="n">
-        <v>263.7801431367797</v>
+        <v>240.2639882864201</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.772918920971</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546168</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>170.8895739217706</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9451117671067</v>
+        <v>273.8265195544448</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611278</v>
+        <v>319.6521314611277</v>
       </c>
       <c r="M32" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="N32" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="O32" t="n">
         <v>355.1207157644253</v>
       </c>
       <c r="P32" t="n">
-        <v>228.5653939646631</v>
+        <v>263.4546859227985</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.5258895058887</v>
+        <v>194.1199747555644</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339701</v>
+        <v>74.81014908339692</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>131.5267059186995</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L34" t="n">
-        <v>51.17702204982899</v>
+        <v>209.6223152318331</v>
       </c>
       <c r="M34" t="n">
-        <v>250.8021929297608</v>
+        <v>350.9000034365196</v>
       </c>
       <c r="N34" t="n">
         <v>235.6435193284066</v>
       </c>
       <c r="O34" t="n">
-        <v>153.575340825138</v>
+        <v>153.5753408251379</v>
       </c>
       <c r="P34" t="n">
-        <v>263.7801431367797</v>
+        <v>13.6334264630523</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.772918920971</v>
+        <v>133.7729189209709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>19.09577352836473</v>
       </c>
       <c r="J35" t="n">
         <v>55.7494205620844</v>
       </c>
       <c r="K35" t="n">
-        <v>354.7624464597703</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L35" t="n">
-        <v>265.8031096355498</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M35" t="n">
         <v>259.5483116289826</v>
@@ -37318,7 +37318,7 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O35" t="n">
-        <v>239.9805624047391</v>
+        <v>427.6195194100005</v>
       </c>
       <c r="P35" t="n">
         <v>169.9683620487816</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.0405520961925</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K38" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L38" t="n">
-        <v>204.5119781014415</v>
+        <v>265.803109635551</v>
       </c>
       <c r="M38" t="n">
         <v>259.5483116289826</v>
@@ -37558,10 +37558,10 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P38" t="n">
-        <v>389.9258501011317</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.97982139587825</v>
+        <v>298.9373094482282</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>204.5119781014415</v>
       </c>
       <c r="M41" t="n">
-        <v>427.61951941</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N41" t="n">
-        <v>268.4084871644167</v>
+        <v>427.6195194100002</v>
       </c>
       <c r="O41" t="n">
-        <v>239.9805624047391</v>
+        <v>362.018149745614</v>
       </c>
       <c r="P41" t="n">
-        <v>208.631884801388</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q41" t="n">
         <v>78.97982139587825</v>
@@ -37804,7 +37804,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283343</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>61.29113153410837</v>
       </c>
       <c r="J44" t="n">
         <v>55.7494205620844</v>
@@ -38020,13 +38020,13 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L44" t="n">
-        <v>424.4694661537916</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M44" t="n">
         <v>259.5483116289826</v>
       </c>
       <c r="N44" t="n">
-        <v>329.699618698524</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O44" t="n">
         <v>239.9805624047391</v>
@@ -38035,7 +38035,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.97982139587825</v>
+        <v>298.9373094482282</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
